--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>335149.5175407389</v>
+        <v>331012.0344058247</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6660456.462021568</v>
+        <v>6660456.462021571</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>20.54712558012683</v>
+        <v>23.32779925082503</v>
       </c>
       <c r="D2" t="n">
-        <v>23.3277992508252</v>
+        <v>23.32779925082503</v>
       </c>
       <c r="E2" t="n">
-        <v>23.3277992508252</v>
+        <v>0.585924287224175</v>
       </c>
       <c r="F2" t="n">
-        <v>23.3277992508252</v>
+        <v>23.32779925082503</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>23.32779925082503</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23.32779925082503</v>
       </c>
       <c r="D3" t="n">
-        <v>20.54712558012682</v>
+        <v>20.54712558012668</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>23.32779925082503</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>23.3277992508252</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>23.3277992508252</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>23.3277992508252</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>23.32779925082503</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>23.32779925082503</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8458783860903352</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.3277992508252</v>
+        <v>0.8458783860901778</v>
       </c>
       <c r="H4" t="n">
-        <v>23.3277992508252</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19.7012471940365</v>
+        <v>19.70124719403651</v>
       </c>
       <c r="S4" t="n">
-        <v>23.3277992508252</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>23.32779925082503</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005864</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>41.31500304752733</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="E6" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F6" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>36.39025468426206</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F7" t="n">
-        <v>36.39025468426206</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>41.31500304752733</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1214,70 +1214,70 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>36.39025468426205</v>
-      </c>
-      <c r="D9" t="n">
-        <v>41.31500304752733</v>
       </c>
       <c r="E9" t="n">
         <v>41.31500304752733</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>41.31500304752733</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>17.84229754998328</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>41.31500304752733</v>
+        <v>36.39025468426205</v>
       </c>
       <c r="W10" t="n">
         <v>41.31500304752733</v>
       </c>
       <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>41.31500304752733</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1384,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>212.6615473203997</v>
+        <v>147.807430699595</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>78.5859147307555</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>60.07073011995545</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>408.7807149261864</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>149.5937310574118</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>49.34995949258636</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>121.3841900088941</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>39.28601389839164</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>214.230991478422</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2007,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>154.9460495062423</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>131.4677714117394</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2083,16 +2083,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>289.0012590013212</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>158.2534696142547</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>94.48222241505202</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>152.3966914658331</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2323,19 +2323,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>170.8454278428343</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>184.1838414910187</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -2478,10 +2478,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>77.20378078338659</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>237.4644955258596</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2560,13 +2560,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>374.4564590914177</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>149.6157531058527</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2724,10 +2724,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>56.48620893916107</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>131.0206200144773</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>170.3034090720313</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>358.0685425954623</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>109.5540470185018</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>18.58065792654969</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>275.1106372348596</v>
+        <v>149.6157531058527</v>
       </c>
     </row>
     <row r="33">
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>124.9554984777218</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>11.31461330144462</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3274,13 +3274,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>321.9370827829817</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>371.8835315599878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,19 +3426,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.7414630310483</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>51.77925078256501</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>136.0829573912428</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3517,7 +3517,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>116.6395830120784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>124.9554984777218</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>162.4467287887212</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>333.0019474031614</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>194.9546727805222</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3918,7 +3918,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>31.15859279518877</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>81.9441177437408</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>2.769130056585734</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>82.99383772901977</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>55.96684102370138</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4146,7 +4146,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>130.2268889427781</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.3111970033008</v>
+        <v>73.14836741450971</v>
       </c>
       <c r="C2" t="n">
-        <v>72.55652470014239</v>
+        <v>49.58493382781776</v>
       </c>
       <c r="D2" t="n">
-        <v>48.99309111345026</v>
+        <v>26.02150024112581</v>
       </c>
       <c r="E2" t="n">
-        <v>25.42965752675814</v>
+        <v>25.42965752675795</v>
       </c>
       <c r="F2" t="n">
-        <v>1.866223940066016</v>
+        <v>1.866223940066003</v>
       </c>
       <c r="G2" t="n">
-        <v>1.866223940066016</v>
+        <v>1.866223940066003</v>
       </c>
       <c r="H2" t="n">
-        <v>1.866223940066016</v>
+        <v>1.866223940066003</v>
       </c>
       <c r="I2" t="n">
-        <v>4.30078039474612</v>
+        <v>4.300780394746077</v>
       </c>
       <c r="J2" t="n">
-        <v>10.55978981922414</v>
+        <v>10.55978981922406</v>
       </c>
       <c r="K2" t="n">
-        <v>19.94042246570137</v>
+        <v>19.94042246570123</v>
       </c>
       <c r="L2" t="n">
-        <v>31.57792675593617</v>
+        <v>31.57792675593594</v>
       </c>
       <c r="M2" t="n">
-        <v>44.5268925858409</v>
+        <v>44.52689258584059</v>
       </c>
       <c r="N2" t="n">
-        <v>57.68538622060048</v>
+        <v>57.68538622060007</v>
       </c>
       <c r="O2" t="n">
-        <v>70.11057862895433</v>
+        <v>70.1105786289538</v>
       </c>
       <c r="P2" t="n">
-        <v>80.71519288249821</v>
+        <v>80.71519288249762</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.67881654691273</v>
+        <v>88.67881654691207</v>
       </c>
       <c r="R2" t="n">
-        <v>93.3111970033008</v>
+        <v>93.31119700330012</v>
       </c>
       <c r="S2" t="n">
-        <v>93.3111970033008</v>
+        <v>93.31119700330012</v>
       </c>
       <c r="T2" t="n">
-        <v>93.3111970033008</v>
+        <v>93.31119700330012</v>
       </c>
       <c r="U2" t="n">
-        <v>93.3111970033008</v>
+        <v>93.31119700330012</v>
       </c>
       <c r="V2" t="n">
-        <v>93.3111970033008</v>
+        <v>93.31119700330012</v>
       </c>
       <c r="W2" t="n">
-        <v>93.3111970033008</v>
+        <v>92.49614645473748</v>
       </c>
       <c r="X2" t="n">
-        <v>93.3111970033008</v>
+        <v>77.39408707445223</v>
       </c>
       <c r="Y2" t="n">
-        <v>93.3111970033008</v>
+        <v>73.14836741450971</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.62089624322443</v>
+        <v>69.74776341660817</v>
       </c>
       <c r="C3" t="n">
-        <v>22.62089624322443</v>
+        <v>46.18432982991622</v>
       </c>
       <c r="D3" t="n">
-        <v>1.866223940066016</v>
+        <v>25.42965752675795</v>
       </c>
       <c r="E3" t="n">
-        <v>1.866223940066016</v>
+        <v>1.866223940066003</v>
       </c>
       <c r="F3" t="n">
-        <v>1.866223940066016</v>
+        <v>1.866223940066003</v>
       </c>
       <c r="G3" t="n">
-        <v>1.866223940066016</v>
+        <v>1.866223940066003</v>
       </c>
       <c r="H3" t="n">
-        <v>1.866223940066016</v>
+        <v>1.866223940066003</v>
       </c>
       <c r="I3" t="n">
-        <v>3.224722227401276</v>
+        <v>3.224722227401254</v>
       </c>
       <c r="J3" t="n">
-        <v>6.952545362113232</v>
+        <v>6.952545362113183</v>
       </c>
       <c r="K3" t="n">
-        <v>13.32398885826894</v>
+        <v>13.32398885826884</v>
       </c>
       <c r="L3" t="n">
-        <v>21.89118092381442</v>
+        <v>21.89118092381427</v>
       </c>
       <c r="M3" t="n">
-        <v>31.88868997596194</v>
+        <v>31.88868997596171</v>
       </c>
       <c r="N3" t="n">
-        <v>42.15080334420317</v>
+        <v>42.15080334420286</v>
       </c>
       <c r="O3" t="n">
-        <v>51.53863220956315</v>
+        <v>51.53863220956278</v>
       </c>
       <c r="P3" t="n">
-        <v>59.07319251962718</v>
+        <v>74.63315346787955</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.21667574498385</v>
+        <v>79.66980750031333</v>
       </c>
       <c r="R3" t="n">
-        <v>93.3111970033008</v>
+        <v>93.31119700330012</v>
       </c>
       <c r="S3" t="n">
-        <v>69.74776341660868</v>
+        <v>93.31119700330012</v>
       </c>
       <c r="T3" t="n">
-        <v>69.74776341660868</v>
+        <v>93.31119700330012</v>
       </c>
       <c r="U3" t="n">
-        <v>46.18432982991655</v>
+        <v>93.31119700330012</v>
       </c>
       <c r="V3" t="n">
-        <v>46.18432982991655</v>
+        <v>93.31119700330012</v>
       </c>
       <c r="W3" t="n">
-        <v>46.18432982991655</v>
+        <v>93.31119700330012</v>
       </c>
       <c r="X3" t="n">
-        <v>22.62089624322443</v>
+        <v>93.31119700330012</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.62089624322443</v>
+        <v>93.31119700330012</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.84751372566272</v>
+        <v>49.8475137256622</v>
       </c>
       <c r="C4" t="n">
-        <v>49.84751372566272</v>
+        <v>49.8475137256622</v>
       </c>
       <c r="D4" t="n">
-        <v>49.84751372566272</v>
+        <v>26.28408013897025</v>
       </c>
       <c r="E4" t="n">
-        <v>49.84751372566272</v>
+        <v>2.720646552278303</v>
       </c>
       <c r="F4" t="n">
-        <v>48.99309111345026</v>
+        <v>2.720646552278303</v>
       </c>
       <c r="G4" t="n">
-        <v>25.42965752675814</v>
+        <v>1.866223940066003</v>
       </c>
       <c r="H4" t="n">
-        <v>1.866223940066016</v>
+        <v>1.866223940066003</v>
       </c>
       <c r="I4" t="n">
-        <v>1.866223940066016</v>
+        <v>1.866223940066003</v>
       </c>
       <c r="J4" t="n">
-        <v>24.96074519838296</v>
+        <v>4.204940375576625</v>
       </c>
       <c r="K4" t="n">
-        <v>30.24803122199248</v>
+        <v>8.048169904421393</v>
       </c>
       <c r="L4" t="n">
-        <v>35.16604184129825</v>
+        <v>16.07232853695233</v>
       </c>
       <c r="M4" t="n">
-        <v>40.35139448338517</v>
+        <v>21.25768117903921</v>
       </c>
       <c r="N4" t="n">
-        <v>63.44591574170212</v>
+        <v>44.35220243735599</v>
       </c>
       <c r="O4" t="n">
-        <v>86.54043700001907</v>
+        <v>67.44672369567277</v>
       </c>
       <c r="P4" t="n">
-        <v>90.54124495399022</v>
+        <v>90.54124495398953</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.3111970033008</v>
+        <v>93.31119700330012</v>
       </c>
       <c r="R4" t="n">
-        <v>73.41094731235485</v>
+        <v>73.41094731235415</v>
       </c>
       <c r="S4" t="n">
-        <v>49.84751372566272</v>
+        <v>73.41094731235415</v>
       </c>
       <c r="T4" t="n">
-        <v>49.84751372566272</v>
+        <v>73.41094731235415</v>
       </c>
       <c r="U4" t="n">
-        <v>49.84751372566272</v>
+        <v>73.41094731235415</v>
       </c>
       <c r="V4" t="n">
-        <v>49.84751372566272</v>
+        <v>49.8475137256622</v>
       </c>
       <c r="W4" t="n">
-        <v>49.84751372566272</v>
+        <v>49.8475137256622</v>
       </c>
       <c r="X4" t="n">
-        <v>49.84751372566272</v>
+        <v>49.8475137256622</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.84751372566272</v>
+        <v>49.8475137256622</v>
       </c>
     </row>
     <row r="5">
@@ -4546,7 +4546,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D5" t="n">
         <v>56.86656659549116</v>
@@ -4555,64 +4555,64 @@
         <v>27.13222579419039</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I5" t="n">
-        <v>7.922179662952698</v>
+        <v>7.922179662952697</v>
       </c>
       <c r="J5" t="n">
         <v>18.98581709030266</v>
       </c>
       <c r="K5" t="n">
-        <v>35.56734164176019</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L5" t="n">
-        <v>56.13818908654176</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M5" t="n">
-        <v>79.02722044682881</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N5" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O5" t="n">
-        <v>124.2498119529545</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P5" t="n">
-        <v>142.9948879228475</v>
+        <v>142.9948879228476</v>
       </c>
       <c r="Q5" t="n">
-        <v>157.0716593183937</v>
+        <v>157.0716593183938</v>
       </c>
       <c r="R5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
         <v>164.4449616415467</v>
       </c>
       <c r="X5" t="n">
-        <v>149.3429022612614</v>
+        <v>149.3429022612615</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.0971826013189</v>
+        <v>145.097182601319</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.2600121901093</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="C6" t="n">
-        <v>165.2600121901093</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="D6" t="n">
-        <v>123.5276858794756</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E6" t="n">
-        <v>81.79535956884197</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F6" t="n">
-        <v>40.06303325820831</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G6" t="n">
-        <v>3.305200243802186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H6" t="n">
-        <v>3.305200243802186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>5.706527910441168</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J6" t="n">
-        <v>12.29595456866669</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K6" t="n">
-        <v>53.19780758571873</v>
+        <v>49.62200743646791</v>
       </c>
       <c r="L6" t="n">
-        <v>86.30252310133805</v>
+        <v>64.76566681697273</v>
       </c>
       <c r="M6" t="n">
-        <v>103.9744593181194</v>
+        <v>82.43760303375414</v>
       </c>
       <c r="N6" t="n">
-        <v>122.1141191020717</v>
+        <v>100.5772628177064</v>
       </c>
       <c r="O6" t="n">
-        <v>138.7083639341946</v>
+        <v>117.1715076498293</v>
       </c>
       <c r="P6" t="n">
-        <v>152.0267083864402</v>
+        <v>130.4898521020749</v>
       </c>
       <c r="Q6" t="n">
-        <v>160.9296689482059</v>
+        <v>139.3928126638406</v>
       </c>
       <c r="R6" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T6" t="n">
-        <v>165.2600121901093</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U6" t="n">
-        <v>165.2600121901093</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V6" t="n">
-        <v>165.2600121901093</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W6" t="n">
-        <v>165.2600121901093</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="X6" t="n">
-        <v>165.2600121901093</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="Y6" t="n">
-        <v>165.2600121901093</v>
+        <v>81.79535956884203</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.79535956884197</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="C7" t="n">
-        <v>81.79535956884197</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="D7" t="n">
-        <v>81.79535956884197</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="E7" t="n">
-        <v>81.79535956884197</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="F7" t="n">
-        <v>45.03752655443585</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="G7" t="n">
-        <v>3.305200243802186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H7" t="n">
-        <v>3.305200243802186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I7" t="n">
-        <v>3.305200243802186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>44.20705326085424</v>
+        <v>41.3126320053401</v>
       </c>
       <c r="K7" t="n">
-        <v>85.10890627790629</v>
+        <v>82.21448502239217</v>
       </c>
       <c r="L7" t="n">
-        <v>126.0107592949583</v>
+        <v>90.90772746153318</v>
       </c>
       <c r="M7" t="n">
-        <v>136.0791245210935</v>
+        <v>100.0735327310763</v>
       </c>
       <c r="N7" t="n">
-        <v>145.026987427909</v>
+        <v>109.0213956378918</v>
       </c>
       <c r="O7" t="n">
-        <v>153.2917870759318</v>
+        <v>117.2861952859146</v>
       </c>
       <c r="P7" t="n">
-        <v>160.3637509630745</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q7" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>165.2600121901093</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S7" t="n">
-        <v>123.5276858794756</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T7" t="n">
-        <v>81.79535956884197</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="U7" t="n">
-        <v>81.79535956884197</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="V7" t="n">
-        <v>81.79535956884197</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="W7" t="n">
-        <v>81.79535956884197</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="X7" t="n">
-        <v>81.79535956884197</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="Y7" t="n">
-        <v>81.79535956884197</v>
+        <v>63.06004933219679</v>
       </c>
     </row>
     <row r="8">
@@ -4783,16 +4783,16 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.73594738064257</v>
       </c>
       <c r="D8" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549115</v>
       </c>
       <c r="E8" t="n">
         <v>27.13222579419039</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802179</v>
       </c>
       <c r="G8" t="n">
         <v>3.305200243802187</v>
@@ -4801,19 +4801,19 @@
         <v>3.305200243802187</v>
       </c>
       <c r="I8" t="n">
-        <v>7.922179662952695</v>
+        <v>7.922179662952684</v>
       </c>
       <c r="J8" t="n">
         <v>18.98581709030266</v>
       </c>
       <c r="K8" t="n">
-        <v>35.56734164176018</v>
+        <v>35.56734164176019</v>
       </c>
       <c r="L8" t="n">
-        <v>56.13818908654175</v>
+        <v>56.13818908654176</v>
       </c>
       <c r="M8" t="n">
-        <v>79.02722044682881</v>
+        <v>79.02722044682882</v>
       </c>
       <c r="N8" t="n">
         <v>102.2866202642709</v>
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.2600121901093</v>
+        <v>81.79535956884197</v>
       </c>
       <c r="C9" t="n">
-        <v>128.5021791757032</v>
+        <v>81.79535956884197</v>
       </c>
       <c r="D9" t="n">
-        <v>86.76985286506954</v>
+        <v>45.03752655443586</v>
       </c>
       <c r="E9" t="n">
-        <v>45.03752655443586</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="F9" t="n">
         <v>3.305200243802187</v>
@@ -4880,28 +4880,28 @@
         <v>3.305200243802187</v>
       </c>
       <c r="I9" t="n">
-        <v>5.706527910441169</v>
+        <v>5.70652791044117</v>
       </c>
       <c r="J9" t="n">
-        <v>23.32497423834098</v>
+        <v>12.29595456866669</v>
       </c>
       <c r="K9" t="n">
-        <v>34.5873539456846</v>
+        <v>34.58735394568455</v>
       </c>
       <c r="L9" t="n">
-        <v>49.73101332618942</v>
+        <v>49.73101332618937</v>
       </c>
       <c r="M9" t="n">
-        <v>67.40294954297082</v>
+        <v>67.40294954297077</v>
       </c>
       <c r="N9" t="n">
-        <v>85.54260932692304</v>
+        <v>85.54260932692301</v>
       </c>
       <c r="O9" t="n">
-        <v>102.136854159046</v>
+        <v>102.1368541590459</v>
       </c>
       <c r="P9" t="n">
-        <v>115.4551986112916</v>
+        <v>115.4551986112915</v>
       </c>
       <c r="Q9" t="n">
         <v>124.3581591730573</v>
@@ -4922,13 +4922,13 @@
         <v>165.2600121901093</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901093</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901093</v>
+        <v>81.79535956884197</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2600121901093</v>
+        <v>81.79535956884197</v>
       </c>
     </row>
     <row r="10">
@@ -4962,16 +4962,16 @@
         <v>3.305200243802187</v>
       </c>
       <c r="J10" t="n">
-        <v>9.104021427429016</v>
+        <v>43.46707199591354</v>
       </c>
       <c r="K10" t="n">
-        <v>50.00587444448107</v>
+        <v>50.26049491215557</v>
       </c>
       <c r="L10" t="n">
-        <v>90.90772746153313</v>
+        <v>58.95373735129659</v>
       </c>
       <c r="M10" t="n">
-        <v>100.0735327310763</v>
+        <v>68.11954262083972</v>
       </c>
       <c r="N10" t="n">
         <v>109.0213956378918</v>
@@ -4986,28 +4986,28 @@
         <v>165.2600121901093</v>
       </c>
       <c r="R10" t="n">
-        <v>146.5247019534641</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="S10" t="n">
-        <v>146.5247019534641</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="T10" t="n">
-        <v>146.5247019534641</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="U10" t="n">
+        <v>165.2600121901093</v>
+      </c>
+      <c r="V10" t="n">
         <v>128.5021791757032</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>86.76985286506954</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
+        <v>86.76985286506954</v>
+      </c>
+      <c r="Y10" t="n">
         <v>45.03752655443586</v>
-      </c>
-      <c r="X10" t="n">
-        <v>3.305200243802187</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>3.305200243802187</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1782.900983623584</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="C11" t="n">
-        <v>1344.758510807007</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D11" t="n">
-        <v>908.8487259814518</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E11" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
         <v>47.20655154895474</v>
@@ -5038,16 +5038,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435807</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W11" t="n">
-        <v>1782.900983623584</v>
+        <v>2170.560772612438</v>
       </c>
       <c r="X11" t="n">
-        <v>1782.900983623584</v>
+        <v>2170.560772612438</v>
       </c>
       <c r="Y11" t="n">
-        <v>1782.900983623584</v>
+        <v>2170.560772612438</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235873</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
         <v>47.20655154895474</v>
@@ -5159,13 +5159,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>616.081764785142</v>
+        <v>663.4738450083642</v>
       </c>
       <c r="C13" t="n">
-        <v>443.520053268367</v>
+        <v>663.4738450083642</v>
       </c>
       <c r="D13" t="n">
-        <v>277.6420604698897</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="E13" t="n">
-        <v>107.8840567206269</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895474</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>481.9462364092383</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y13" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1495.863289652878</v>
+        <v>898.2588374222854</v>
       </c>
       <c r="C14" t="n">
-        <v>1495.863289652878</v>
+        <v>460.1163646057087</v>
       </c>
       <c r="D14" t="n">
-        <v>1059.953504827322</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E14" t="n">
-        <v>626.1787599856175</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F14" t="n">
-        <v>198.3113303948252</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G14" t="n">
-        <v>198.3113303948252</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895474</v>
@@ -5278,13 +5278,13 @@
         <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V14" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W14" t="n">
-        <v>1915.005753073567</v>
+        <v>1743.700871327883</v>
       </c>
       <c r="X14" t="n">
-        <v>1495.863289652878</v>
+        <v>1324.558407907193</v>
       </c>
       <c r="Y14" t="n">
-        <v>1495.863289652878</v>
+        <v>1324.558407907193</v>
       </c>
     </row>
     <row r="15">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>566.2333208532364</v>
+        <v>863.3185618614019</v>
       </c>
       <c r="C16" t="n">
-        <v>393.6716093364613</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="D16" t="n">
-        <v>393.6716093364613</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E16" t="n">
-        <v>223.9136055871985</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
         <v>47.20655154895474</v>
@@ -5436,13 +5436,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>358.0754347909403</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>481.9462364092383</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M16" t="n">
         <v>1066.127311827553</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2310.479133515832</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T16" t="n">
-        <v>2068.231909419238</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U16" t="n">
-        <v>1789.845277467981</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V16" t="n">
-        <v>1502.889769338411</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W16" t="n">
-        <v>1230.863364924703</v>
+        <v>1527.948605932868</v>
       </c>
       <c r="X16" t="n">
-        <v>985.4716102581153</v>
+        <v>1282.556851266281</v>
       </c>
       <c r="Y16" t="n">
-        <v>758.0519395722235</v>
+        <v>1055.137180580389</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>485.3490243655314</v>
+        <v>86.88939387056246</v>
       </c>
       <c r="C17" t="n">
-        <v>47.20655154895474</v>
+        <v>86.88939387056246</v>
       </c>
       <c r="D17" t="n">
-        <v>47.20655154895474</v>
+        <v>86.88939387056246</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895474</v>
+        <v>86.88939387056246</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>86.88939387056246</v>
       </c>
       <c r="G17" t="n">
         <v>47.20655154895474</v>
@@ -5512,16 +5512,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V17" t="n">
-        <v>2143.932636560442</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W17" t="n">
-        <v>1739.077181971475</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="X17" t="n">
-        <v>1319.934718550786</v>
+        <v>921.4750880558169</v>
       </c>
       <c r="Y17" t="n">
-        <v>911.6485948504392</v>
+        <v>513.1889643554703</v>
       </c>
     </row>
     <row r="18">
@@ -5597,13 +5597,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.081764785142</v>
+        <v>894.468396736399</v>
       </c>
       <c r="C19" t="n">
-        <v>443.520053268367</v>
+        <v>721.9066852196239</v>
       </c>
       <c r="D19" t="n">
-        <v>287.0088921509505</v>
+        <v>721.9066852196239</v>
       </c>
       <c r="E19" t="n">
-        <v>287.0088921509505</v>
+        <v>552.1486814703612</v>
       </c>
       <c r="F19" t="n">
-        <v>110.3018381127067</v>
+        <v>375.4416274321175</v>
       </c>
       <c r="G19" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H19" t="n">
         <v>110.3018381127067</v>
@@ -5676,22 +5676,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092383</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789087</v>
+        <v>1277.85475791851</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540314</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5706,19 +5706,19 @@
         <v>2118.080353351143</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270317</v>
+        <v>1831.124845221574</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856609</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.320054190021</v>
+        <v>1313.706686141278</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041292</v>
+        <v>1086.287015455386</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1355.033554032792</v>
+        <v>339.1270151866529</v>
       </c>
       <c r="C20" t="n">
-        <v>916.8910812162151</v>
+        <v>339.1270151866529</v>
       </c>
       <c r="D20" t="n">
-        <v>480.9812963906596</v>
+        <v>339.1270151866529</v>
       </c>
       <c r="E20" t="n">
-        <v>47.20655154895474</v>
+        <v>339.1270151866529</v>
       </c>
       <c r="F20" t="n">
         <v>47.20655154895474</v>
@@ -5749,13 +5749,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
         <v>805.4408022867025</v>
@@ -5788,16 +5788,16 @@
         <v>2360.327577447737</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>1592.855172792597</v>
       </c>
       <c r="X20" t="n">
-        <v>1941.185114027048</v>
+        <v>1173.712709371907</v>
       </c>
       <c r="Y20" t="n">
-        <v>1781.3331245177</v>
+        <v>765.4265856715607</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>787.3860690861721</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C22" t="n">
-        <v>787.3860690861721</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D22" t="n">
-        <v>621.5080762876948</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E22" t="n">
-        <v>451.7500725384321</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F22" t="n">
-        <v>275.0430185001883</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895474</v>
@@ -5913,22 +5913,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>320.0013704257355</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>862.0820538119945</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M22" t="n">
-        <v>992.6864461505238</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N22" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5940,22 +5940,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T22" t="n">
-        <v>2215.901038951972</v>
+        <v>2120.464450653939</v>
       </c>
       <c r="U22" t="n">
-        <v>1937.514407000715</v>
+        <v>2120.464450653939</v>
       </c>
       <c r="V22" t="n">
-        <v>1650.558898871145</v>
+        <v>1833.50894252437</v>
       </c>
       <c r="W22" t="n">
-        <v>1378.532494457437</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.140739790849</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y22" t="n">
-        <v>979.2046878051592</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1955.47212285877</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="C23" t="n">
-        <v>1517.329650042194</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D23" t="n">
-        <v>1081.419865216638</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E23" t="n">
-        <v>647.6451203749332</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F23" t="n">
-        <v>219.7776907841409</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G23" t="n">
-        <v>219.7776907841409</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
         <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L23" t="n">
         <v>805.4408022867023</v>
@@ -6007,7 +6007,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>1922.045671797284</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>1559.42872173111</v>
       </c>
       <c r="W23" t="n">
-        <v>1955.47212285877</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="X23" t="n">
-        <v>1955.47212285877</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="Y23" t="n">
-        <v>1955.47212285877</v>
+        <v>1154.573267142144</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>471.655226289377</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C25" t="n">
-        <v>471.655226289377</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D25" t="n">
-        <v>471.655226289377</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E25" t="n">
-        <v>301.8972225401143</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F25" t="n">
-        <v>125.1901685018705</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G25" t="n">
-        <v>125.1901685018705</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H25" t="n">
         <v>47.20655154895474</v>
@@ -6153,19 +6153,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>326.783117436994</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M25" t="n">
-        <v>910.9641928553089</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N25" t="n">
-        <v>1480.721907816843</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O25" t="n">
-        <v>2018.157038390386</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P25" t="n">
-        <v>2118.926094568069</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U25" t="n">
-        <v>1695.267182904121</v>
+        <v>2120.464450653939</v>
       </c>
       <c r="V25" t="n">
-        <v>1408.311674774552</v>
+        <v>1833.50894252437</v>
       </c>
       <c r="W25" t="n">
-        <v>1136.285270360843</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X25" t="n">
-        <v>890.8935156942559</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y25" t="n">
-        <v>663.4738450083642</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>485.3490243655314</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C26" t="n">
-        <v>47.20655154895474</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D26" t="n">
-        <v>47.20655154895474</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E26" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F26" t="n">
         <v>47.20655154895474</v>
@@ -6223,16 +6223,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U26" t="n">
-        <v>2060.790516184048</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V26" t="n">
-        <v>1698.173566117875</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W26" t="n">
-        <v>1319.934718550786</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X26" t="n">
-        <v>1319.934718550786</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="Y26" t="n">
-        <v>911.6485948504392</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.291841223631</v>
+        <v>807.9003835041292</v>
       </c>
       <c r="C28" t="n">
-        <v>919.7301297068562</v>
+        <v>635.3386719873541</v>
       </c>
       <c r="D28" t="n">
-        <v>753.852136908379</v>
+        <v>469.4606791888768</v>
       </c>
       <c r="E28" t="n">
-        <v>584.0941331591162</v>
+        <v>299.7026754396141</v>
       </c>
       <c r="F28" t="n">
-        <v>407.3870791208724</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G28" t="n">
         <v>242.6458987333908</v>
@@ -6387,19 +6387,19 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L28" t="n">
-        <v>1106.33113894078</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M28" t="n">
-        <v>1236.93553127931</v>
+        <v>897.9345369632209</v>
       </c>
       <c r="N28" t="n">
-        <v>1364.434443083199</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O28" t="n">
-        <v>1657.620488527957</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P28" t="n">
         <v>2105.896438675982</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>2215.901038951972</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>2215.901038951972</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>1928.945530822402</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W28" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1782.900983623584</v>
+        <v>1078.11619088664</v>
       </c>
       <c r="C29" t="n">
-        <v>1344.758510807007</v>
+        <v>1078.11619088664</v>
       </c>
       <c r="D29" t="n">
-        <v>908.8487259814518</v>
+        <v>1078.11619088664</v>
       </c>
       <c r="E29" t="n">
-        <v>475.073981139747</v>
+        <v>1078.11619088664</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
         <v>805.4408022867025</v>
@@ -6493,22 +6493,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>2209.200554108492</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W29" t="n">
-        <v>2209.200554108492</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X29" t="n">
-        <v>2209.200554108492</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.200554108492</v>
+        <v>1078.11619088664</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.081764785142</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C31" t="n">
-        <v>443.520053268367</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D31" t="n">
-        <v>393.6716093364613</v>
+        <v>305.7772334908997</v>
       </c>
       <c r="E31" t="n">
-        <v>223.9136055871985</v>
+        <v>305.7772334908997</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895474</v>
+        <v>129.0701794526559</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
         <v>47.20655154895474</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="32">
@@ -6697,16 +6697,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6721,31 +6721,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R32" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T32" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U32" t="n">
-        <v>2060.790516184048</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V32" t="n">
-        <v>2060.790516184048</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W32" t="n">
-        <v>2060.790516184048</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X32" t="n">
-        <v>2060.790516184048</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="Y32" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.291841223631</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C34" t="n">
-        <v>919.7301297068562</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895474</v>
@@ -6861,22 +6861,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L34" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M34" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N34" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="T34" t="n">
-        <v>2360.327577447737</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U34" t="n">
-        <v>2081.94094549648</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.98543736691</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W34" t="n">
-        <v>1522.959032953202</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.53013062851</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.110459942618</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1320.76150051161</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="C35" t="n">
-        <v>882.6190276950331</v>
+        <v>1669.94748331507</v>
       </c>
       <c r="D35" t="n">
-        <v>446.7092428694776</v>
+        <v>1234.037698489514</v>
       </c>
       <c r="E35" t="n">
-        <v>446.7092428694776</v>
+        <v>800.2629536478094</v>
       </c>
       <c r="F35" t="n">
-        <v>446.7092428694776</v>
+        <v>372.3955240570171</v>
       </c>
       <c r="G35" t="n">
         <v>47.20655154895474</v>
@@ -6934,16 +6934,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228019</v>
+        <v>512.324927422802</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2101.256885969251</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V35" t="n">
-        <v>2101.256885969251</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W35" t="n">
-        <v>1696.401431380284</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X35" t="n">
-        <v>1696.401431380284</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y35" t="n">
-        <v>1320.76150051161</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085.748659567627</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C37" t="n">
-        <v>913.186948050852</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D37" t="n">
-        <v>753.852136908379</v>
+        <v>471.655226289377</v>
       </c>
       <c r="E37" t="n">
-        <v>584.0941331591162</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G37" t="n">
         <v>242.6458987333908</v>
@@ -7098,22 +7098,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M37" t="n">
-        <v>1340.193340120866</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N37" t="n">
-        <v>1467.692251924755</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O37" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T37" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>2081.94094549648</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.98543736691</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W37" t="n">
-        <v>1522.959032953202</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.567278286614</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y37" t="n">
-        <v>1277.567278286614</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1782.900983623584</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="C38" t="n">
-        <v>1344.758510807007</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G38" t="n">
         <v>47.20655154895474</v>
@@ -7171,19 +7171,19 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
         <v>1463.013992431967</v>
@@ -7216,10 +7216,10 @@
         <v>2319.861207662534</v>
       </c>
       <c r="X38" t="n">
-        <v>1900.718744241845</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y38" t="n">
-        <v>1782.900983623584</v>
+        <v>2319.861207662534</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R39" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S39" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T39" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U39" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V39" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>732.1113136517137</v>
+        <v>795.2066002154656</v>
       </c>
       <c r="C40" t="n">
-        <v>559.5496021349386</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="D40" t="n">
-        <v>393.6716093364613</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E40" t="n">
-        <v>223.9136055871985</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>202.912315818696</v>
+        <v>297.4118164938723</v>
       </c>
       <c r="L40" t="n">
-        <v>744.992999204955</v>
+        <v>839.4924998801313</v>
       </c>
       <c r="M40" t="n">
-        <v>1329.17407462327</v>
+        <v>970.0968922186607</v>
       </c>
       <c r="N40" t="n">
-        <v>1898.931789584804</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>2234.109902217715</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U40" t="n">
-        <v>1955.723270266458</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V40" t="n">
-        <v>1668.767762136888</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W40" t="n">
-        <v>1396.74135772318</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X40" t="n">
-        <v>1151.349603056593</v>
+        <v>1214.444889620345</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.9299323707007</v>
+        <v>987.0252189344528</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1488.706182588659</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="C41" t="n">
-        <v>1488.706182588659</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D41" t="n">
-        <v>1052.796397763104</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E41" t="n">
-        <v>1052.796397763104</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F41" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
@@ -7429,7 +7429,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2163.40366554822</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662534</v>
+        <v>2163.40366554822</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662534</v>
+        <v>2163.40366554822</v>
       </c>
       <c r="W41" t="n">
-        <v>1915.005753073567</v>
+        <v>2163.40366554822</v>
       </c>
       <c r="X41" t="n">
-        <v>1915.005753073567</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="Y41" t="n">
-        <v>1915.005753073567</v>
+        <v>1744.26120212753</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.291841223631</v>
+        <v>888.1081691988504</v>
       </c>
       <c r="C43" t="n">
-        <v>919.7301297068562</v>
+        <v>888.1081691988504</v>
       </c>
       <c r="D43" t="n">
-        <v>753.852136908379</v>
+        <v>722.2301764003731</v>
       </c>
       <c r="E43" t="n">
-        <v>584.0941331591162</v>
+        <v>552.4721726511104</v>
       </c>
       <c r="F43" t="n">
-        <v>407.3870791208724</v>
+        <v>375.7651186128667</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>211.0239382253851</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>78.67987760470098</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895474</v>
@@ -7572,16 +7572,16 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>320.0013704257355</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>862.0820538119945</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>992.6864461505238</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N43" t="n">
-        <v>1120.185357954413</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O43" t="n">
         <v>1657.620488527957</v>
@@ -7605,16 +7605,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1839.693721399886</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W43" t="n">
-        <v>1756.921885295098</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="X43" t="n">
-        <v>1511.53013062851</v>
+        <v>1307.346458603729</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.110459942618</v>
+        <v>1079.926787917838</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>449.5063439367359</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="C44" t="n">
-        <v>449.5063439367359</v>
+        <v>1586.115323992828</v>
       </c>
       <c r="D44" t="n">
-        <v>449.5063439367359</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E44" t="n">
-        <v>449.5063439367359</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F44" t="n">
-        <v>449.5063439367359</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>50.00365261621306</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
@@ -7648,16 +7648,16 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
         <v>1463.013992431967</v>
@@ -7666,7 +7666,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7681,19 +7681,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2108.089956131646</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="V44" t="n">
-        <v>2108.089956131646</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="W44" t="n">
-        <v>1703.23450154268</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="X44" t="n">
-        <v>1284.09203812199</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="Y44" t="n">
-        <v>875.8059144216437</v>
+        <v>2024.257796809404</v>
       </c>
     </row>
     <row r="45">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.081764785142</v>
+        <v>618.4995461772218</v>
       </c>
       <c r="C46" t="n">
-        <v>559.5496021349386</v>
+        <v>445.9378346604467</v>
       </c>
       <c r="D46" t="n">
-        <v>393.6716093364613</v>
+        <v>280.0598418619694</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871985</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>744.992999204955</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399886</v>
+        <v>1842.111502791966</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270317</v>
+        <v>1555.155994662397</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856609</v>
+        <v>1283.129590248688</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.320054190021</v>
+        <v>1037.737835582101</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041292</v>
+        <v>810.3181648962088</v>
       </c>
     </row>
   </sheetData>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>15.71713227096244</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.168514336285718</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.85325743064661</v>
+        <v>11.3046394959697</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,25 +8136,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.96545941697607</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.458642924004766</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3.137523245682019</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>18.21461082043013</v>
+        <v>18.21461082043</v>
       </c>
       <c r="O4" t="n">
-        <v>18.60494214182605</v>
+        <v>18.60494214182592</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>19.28657909529865</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>29.93886192899842</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>18.14248094456011</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,16 +8373,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>37.13925100285412</v>
+        <v>34.21559316900146</v>
       </c>
       <c r="K7" t="n">
-        <v>34.4529596977879</v>
+        <v>34.45295969778793</v>
       </c>
       <c r="L7" t="n">
-        <v>32.53395007869801</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9116767238303112</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>11.14042390876191</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>11.14042390876186</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8610,19 +8610,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.681643090303396</v>
+        <v>36.39179517968171</v>
       </c>
       <c r="K10" t="n">
-        <v>34.45295969778791</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>32.53395007869802</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>32.27675768710762</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>156.7304232042871</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371571</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>69.27619576520644</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M16" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9324,25 +9324,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>156.7304232042871</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>10.62967161639926</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>118.2717723303428</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9801,10 +9801,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M25" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>156.730423204287</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10035,22 +10035,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>357.5427697202098</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>177.1920849464601</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10509,25 +10509,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>177.1920849464602</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10746,16 +10746,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>104.3008170116725</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>7.999813646955943</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>158.2045317475397</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,19 +11220,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>30.81754489126217</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>192.4544649334023</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22549,16 +22549,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>13.21392250828409</v>
+        <v>10.43324883758589</v>
       </c>
       <c r="D2" t="n">
-        <v>8.222887726474703</v>
+        <v>8.222887726474873</v>
       </c>
       <c r="E2" t="n">
-        <v>6.109198142462553</v>
+        <v>28.85107310606358</v>
       </c>
       <c r="F2" t="n">
-        <v>0.260956044059121</v>
+        <v>0.2609560440592915</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22609,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -23317,10 +23317,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>188.1453527226773</v>
+        <v>252.999469343482</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>85.63329813973702</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>22.76997205111348</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>117.4306048841169</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>93.63231361822145</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>147.9219503606773</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23746,7 +23746,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>356.221650508926</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>144.7597890870897</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>9.273163364250252</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>31.62599717186734</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>134.5874962935632</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
@@ -24028,16 +24028,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>245.9497928490884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>145.3425294405754</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>72.74878251319967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>96.17890809869435</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>72.29614307268244</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>53.81683923109065</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>38.1382701058848</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24448,13 +24448,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>26.35044095165927</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>254.5875093574904</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>118.4537745587003</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>99.00273129754012</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>65.52021269942202</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>249.4367335470099</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24748,7 +24748,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>144.5131106570571</v>
       </c>
       <c r="H31" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -24985,7 +24985,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>129.0926252284835</v>
+        <v>254.5875093574904</v>
       </c>
     </row>
     <row r="33">
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>18.02677463308606</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.623223818477</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25162,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>73.57058162433583</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>32.31973090335526</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>6.477749839444186</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>116.2811729292051</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>285.9536173888159</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25456,10 +25456,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>287.5636794512647</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25569,7 +25569,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>114.8692533779057</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>80.49110833120042</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>90.58680789172297</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>14.69886623505667</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
@@ -25690,10 +25690,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>31.30574090292566</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>187.3620226258306</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>264.2552058849429</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>173.4861468346814</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
@@ -26043,7 +26043,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>145.3758766889663</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>369963.184747953</v>
+        <v>369963.1847479529</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>369963.184747953</v>
+        <v>369963.1847479531</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>369963.1847479529</v>
+        <v>369963.184747953</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>369963.184747953</v>
+        <v>369963.1847479529</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>369963.184747953</v>
+        <v>369963.1847479529</v>
       </c>
     </row>
     <row r="15">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>331619.2890919168</v>
+        <v>331619.2890919166</v>
       </c>
       <c r="C2" t="n">
-        <v>335092.0749315051</v>
+        <v>335092.0749315053</v>
       </c>
       <c r="D2" t="n">
         <v>335092.0749315053</v>
@@ -26325,7 +26325,7 @@
         <v>196621.9641260216</v>
       </c>
       <c r="F2" t="n">
-        <v>196621.9641260216</v>
+        <v>196621.9641260217</v>
       </c>
       <c r="G2" t="n">
         <v>196621.9641260217</v>
@@ -26349,13 +26349,13 @@
         <v>196621.9641260216</v>
       </c>
       <c r="N2" t="n">
+        <v>196621.9641260216</v>
+      </c>
+      <c r="O2" t="n">
+        <v>196621.9641260216</v>
+      </c>
+      <c r="P2" t="n">
         <v>196621.9641260217</v>
-      </c>
-      <c r="O2" t="n">
-        <v>196621.9641260217</v>
-      </c>
-      <c r="P2" t="n">
-        <v>196621.9641260216</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25672.80150168994</v>
+        <v>25672.80150168973</v>
       </c>
       <c r="C3" t="n">
-        <v>18763.31828088703</v>
+        <v>18763.31828088723</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6103.578707182909</v>
+        <v>6103.578707182864</v>
       </c>
       <c r="K3" t="n">
-        <v>4629.330666749633</v>
+        <v>4629.330666749682</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>296245.3696321459</v>
       </c>
       <c r="C4" t="n">
-        <v>294349.6920770005</v>
+        <v>294349.6920770006</v>
       </c>
       <c r="D4" t="n">
         <v>294349.6920770006</v>
       </c>
       <c r="E4" t="n">
-        <v>16511.41869660761</v>
+        <v>16511.41869660762</v>
       </c>
       <c r="F4" t="n">
         <v>16511.41869660761</v>
       </c>
       <c r="G4" t="n">
-        <v>16511.41869660761</v>
+        <v>16511.4186966076</v>
       </c>
       <c r="H4" t="n">
         <v>16511.41869660761</v>
@@ -26441,25 +26441,25 @@
         <v>16511.41869660761</v>
       </c>
       <c r="J4" t="n">
-        <v>16511.41869660762</v>
+        <v>16511.41869660761</v>
       </c>
       <c r="K4" t="n">
         <v>16511.41869660761</v>
       </c>
       <c r="L4" t="n">
+        <v>16511.41869660761</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16511.4186966076</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16511.41869660761</v>
+      </c>
+      <c r="O4" t="n">
         <v>16511.41869660762</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>16511.41869660762</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16511.4186966076</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16511.41869660761</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16511.41869660761</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35449.8699541329</v>
+        <v>35449.86995413288</v>
       </c>
       <c r="C5" t="n">
         <v>36853.56981021012</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25748.75199605193</v>
+        <v>-25762.64313941028</v>
       </c>
       <c r="C6" t="n">
         <v>-14874.50523659259</v>
       </c>
       <c r="D6" t="n">
-        <v>3888.813044294562</v>
+        <v>3888.81304429462</v>
       </c>
       <c r="E6" t="n">
-        <v>-378426.0453362055</v>
+        <v>-378979.9257794275</v>
       </c>
       <c r="F6" t="n">
-        <v>134059.4642197762</v>
+        <v>133505.5837765543</v>
       </c>
       <c r="G6" t="n">
-        <v>134059.4642197763</v>
+        <v>133505.5837765543</v>
       </c>
       <c r="H6" t="n">
-        <v>134059.4642197763</v>
+        <v>133505.5837765543</v>
       </c>
       <c r="I6" t="n">
-        <v>134059.4642197762</v>
+        <v>133505.5837765543</v>
       </c>
       <c r="J6" t="n">
-        <v>127955.8855125933</v>
+        <v>127402.0050693714</v>
       </c>
       <c r="K6" t="n">
-        <v>129430.1335530266</v>
+        <v>128876.2531098046</v>
       </c>
       <c r="L6" t="n">
-        <v>134059.4642197763</v>
+        <v>133505.5837765543</v>
       </c>
       <c r="M6" t="n">
-        <v>-2695.440163339277</v>
+        <v>-3249.320606561175</v>
       </c>
       <c r="N6" t="n">
-        <v>134059.4642197763</v>
+        <v>133505.5837765542</v>
       </c>
       <c r="O6" t="n">
-        <v>134059.4642197762</v>
+        <v>133505.5837765543</v>
       </c>
       <c r="P6" t="n">
-        <v>134059.4642197762</v>
+        <v>133505.5837765543</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443706</v>
+        <v>18.52934677443693</v>
       </c>
       <c r="C3" t="n">
-        <v>32.75310206057159</v>
+        <v>32.7531020605716</v>
       </c>
       <c r="D3" t="n">
-        <v>32.75310206057159</v>
+        <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
         <v>466.7019280932212</v>
@@ -26752,7 +26752,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932212</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.3277992508252</v>
+        <v>23.32779925082503</v>
       </c>
       <c r="C4" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
         <v>41.31500304752733</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443706</v>
+        <v>18.52934677443693</v>
       </c>
       <c r="C3" t="n">
-        <v>14.22375528613453</v>
+        <v>14.22375528613467</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.3277992508252</v>
+        <v>23.32779925082503</v>
       </c>
       <c r="C4" t="n">
-        <v>17.98720379670213</v>
+        <v>17.98720379670232</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.3277992508252</v>
+        <v>23.32779925082503</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670213</v>
+        <v>17.98720379670232</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.3277992508252</v>
+        <v>23.32779925082503</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670213</v>
+        <v>17.98720379670232</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>81.11791793379037</v>
+        <v>81.11791793379038</v>
       </c>
       <c r="T2" t="n">
         <v>217.5404755973798</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.0908620689655</v>
+        <v>96.7630628181405</v>
       </c>
       <c r="C3" t="n">
-        <v>105.3918965517241</v>
+        <v>82.06409730089911</v>
       </c>
       <c r="D3" t="n">
-        <v>73.59226038478545</v>
+        <v>73.5922603847856</v>
       </c>
       <c r="E3" t="n">
-        <v>93.17921052631581</v>
+        <v>69.85141127549079</v>
       </c>
       <c r="F3" t="n">
         <v>82.55</v>
@@ -27475,7 +27475,7 @@
         <v>84.49138326039709</v>
       </c>
       <c r="H3" t="n">
-        <v>40.93337470348445</v>
+        <v>40.93337470348446</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>38.75278408008931</v>
+        <v>62.08058333091452</v>
       </c>
       <c r="T3" t="n">
         <v>128.7162112922732</v>
       </c>
       <c r="U3" t="n">
-        <v>151.2427602018325</v>
+        <v>174.5705594526576</v>
       </c>
       <c r="V3" t="n">
         <v>197.1263427586206</v>
@@ -27523,7 +27523,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
-        <v>129.9909621526836</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -27542,22 +27542,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>140.8914136196675</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>144.7326244609451</v>
       </c>
       <c r="F4" t="n">
-        <v>174.094105111771</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>140.5741493974548</v>
+        <v>163.0560702621898</v>
       </c>
       <c r="H4" t="n">
-        <v>114.8782762477467</v>
+        <v>138.2060754985719</v>
       </c>
       <c r="I4" t="n">
-        <v>86.76851237028718</v>
+        <v>86.7685123702872</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>133.7388482597877</v>
+        <v>157.0666475106129</v>
       </c>
       <c r="T4" t="n">
         <v>243.2778848592312</v>
@@ -27596,7 +27596,7 @@
         <v>275.6468481807266</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>260.7581537974488</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -27700,16 +27700,16 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>52.82438291738495</v>
+        <v>57.74913128065019</v>
       </c>
       <c r="E6" t="n">
-        <v>51.86420747878849</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F6" t="n">
-        <v>41.23499695247267</v>
+        <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>48.07053408363278</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H6" t="n">
         <v>40.6378963153706</v>
@@ -27748,13 +27748,13 @@
         <v>61.51230405132225</v>
       </c>
       <c r="T6" t="n">
-        <v>128.5928940176698</v>
+        <v>87.27789097014248</v>
       </c>
       <c r="U6" t="n">
         <v>174.5685466570983</v>
       </c>
       <c r="V6" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W6" t="n">
         <v>183.4695267241379</v>
@@ -27782,13 +27782,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F7" t="n">
-        <v>138.5497288135993</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>122.5612962059744</v>
+        <v>146.0340017035184</v>
       </c>
       <c r="H7" t="n">
         <v>137.9780290613614</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>115.3046454649951</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T7" t="n">
         <v>201.8532889431057</v>
@@ -27836,7 +27836,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -27934,16 +27934,16 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>69.00164186746207</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>52.82438291738494</v>
+        <v>57.74913128065023</v>
       </c>
       <c r="E9" t="n">
         <v>51.86420747878848</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247266</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
         <v>84.46078876789484</v>
@@ -27994,10 +27994,10 @@
         <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
         <v>156.6196485125224</v>
@@ -28067,19 +28067,19 @@
         <v>243.1682919906331</v>
       </c>
       <c r="U10" t="n">
-        <v>257.8031515728463</v>
+        <v>275.6454491228296</v>
       </c>
       <c r="V10" t="n">
-        <v>242.7709500007465</v>
+        <v>247.6956983640118</v>
       </c>
       <c r="W10" t="n">
         <v>227.991137322044</v>
       </c>
       <c r="X10" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>183.8304709315055</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07448983627914391</v>
+        <v>0.07448983627914336</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7628690357937828</v>
+        <v>0.7628690357937772</v>
       </c>
       <c r="I2" t="n">
-        <v>2.871769413151699</v>
+        <v>2.871769413151678</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741896997</v>
+        <v>6.32223174189695</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511593159</v>
+        <v>9.475386511593092</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862101</v>
+        <v>11.75505483862093</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346455024</v>
+        <v>13.07976346455014</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187836</v>
+        <v>13.29140771187826</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237762</v>
+        <v>12.55069940237753</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923625</v>
+        <v>10.71173156923617</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489407</v>
+        <v>8.044064307489348</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169778</v>
+        <v>4.679172178169744</v>
       </c>
       <c r="S2" t="n">
-        <v>1.697437144210994</v>
+        <v>1.697437144210981</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3260792583119527</v>
+        <v>0.3260792583119503</v>
       </c>
       <c r="U2" t="n">
-        <v>0.005959186902331512</v>
+        <v>0.005959186902331468</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03985557608086462</v>
+        <v>0.03985557608086433</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3849209584651926</v>
+        <v>0.3849209584651898</v>
       </c>
       <c r="I3" t="n">
-        <v>1.372220492257839</v>
+        <v>1.372220492257829</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850461</v>
+        <v>3.765477913850433</v>
       </c>
       <c r="K3" t="n">
-        <v>6.43580151126839</v>
+        <v>6.435801511268344</v>
       </c>
       <c r="L3" t="n">
-        <v>8.653729359136857</v>
+        <v>8.653729359136793</v>
       </c>
       <c r="M3" t="n">
-        <v>10.0984939920682</v>
+        <v>10.09849399206812</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903154</v>
+        <v>10.36577107903147</v>
       </c>
       <c r="O3" t="n">
-        <v>9.48265541955554</v>
+        <v>9.482655419555472</v>
       </c>
       <c r="P3" t="n">
-        <v>7.61066697986265</v>
+        <v>7.610666979862595</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.08752932569072</v>
+        <v>5.087529325690683</v>
       </c>
       <c r="R3" t="n">
-        <v>2.474541820178596</v>
+        <v>2.474541820178578</v>
       </c>
       <c r="S3" t="n">
-        <v>0.740299845186235</v>
+        <v>0.7402998451862296</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1606459404312043</v>
+        <v>0.1606459404312031</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002622077373741095</v>
+        <v>0.002622077373741076</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03341357615062421</v>
+        <v>0.03341357615062397</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2970770679573682</v>
+        <v>0.297077067957366</v>
       </c>
       <c r="I4" t="n">
-        <v>1.004837362784226</v>
+        <v>1.004837362784219</v>
       </c>
       <c r="J4" t="n">
-        <v>2.362339833849131</v>
+        <v>2.362339833849114</v>
       </c>
       <c r="K4" t="n">
-        <v>3.882050029136157</v>
+        <v>3.882050029136129</v>
       </c>
       <c r="L4" t="n">
-        <v>4.967687494248258</v>
+        <v>4.967687494248222</v>
       </c>
       <c r="M4" t="n">
-        <v>5.237729941501938</v>
+        <v>5.237729941501899</v>
       </c>
       <c r="N4" t="n">
-        <v>5.11318843039507</v>
+        <v>5.113188430395033</v>
       </c>
       <c r="O4" t="n">
-        <v>4.72285710899914</v>
+        <v>4.722857108999105</v>
       </c>
       <c r="P4" t="n">
-        <v>4.041220155526402</v>
+        <v>4.041220155526373</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.797931362939996</v>
+        <v>2.797931362939976</v>
       </c>
       <c r="R4" t="n">
-        <v>1.502395887645339</v>
+        <v>1.502395887645328</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5823075043704234</v>
+        <v>0.5823075043704192</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1427670980981216</v>
+        <v>0.1427670980981205</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001822558699124959</v>
+        <v>0.001822558699124946</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>1.348473191870668</v>
       </c>
       <c r="I5" t="n">
-        <v>5.076237054030901</v>
+        <v>5.076237054030902</v>
       </c>
       <c r="J5" t="n">
         <v>11.17539134075754</v>
@@ -31296,28 +31296,28 @@
         <v>20.77863378260765</v>
       </c>
       <c r="M5" t="n">
-        <v>23.12023369725966</v>
+        <v>23.12023369725967</v>
       </c>
       <c r="N5" t="n">
-        <v>23.49434324994147</v>
+        <v>23.49434324994148</v>
       </c>
       <c r="O5" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978144</v>
       </c>
       <c r="P5" t="n">
         <v>18.93442017160913</v>
       </c>
       <c r="Q5" t="n">
-        <v>14.21896100560221</v>
+        <v>14.21896100560222</v>
       </c>
       <c r="R5" t="n">
-        <v>8.27106350678344</v>
+        <v>8.271063506783442</v>
       </c>
       <c r="S5" t="n">
         <v>3.000447490272464</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5763887608850337</v>
+        <v>0.5763887608850338</v>
       </c>
       <c r="U5" t="n">
         <v>0.01053366096420392</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07045006858311625</v>
+        <v>0.07045006858311627</v>
       </c>
       <c r="H6" t="n">
-        <v>0.680399346579044</v>
+        <v>0.6803993465790441</v>
       </c>
       <c r="I6" t="n">
         <v>2.425583501655538</v>
       </c>
       <c r="J6" t="n">
-        <v>6.655986523460121</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K6" t="n">
         <v>11.37614111852891</v>
@@ -31384,22 +31384,22 @@
         <v>16.76186346679082</v>
       </c>
       <c r="P6" t="n">
-        <v>13.45287318408647</v>
+        <v>13.45287318408648</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.992889456329017</v>
+        <v>8.992889456329019</v>
       </c>
       <c r="R6" t="n">
-        <v>4.374084082730676</v>
+        <v>4.374084082730677</v>
       </c>
       <c r="S6" t="n">
-        <v>1.308579124778496</v>
+        <v>1.308579124778497</v>
       </c>
       <c r="T6" t="n">
         <v>0.2839632150345782</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004634872933099755</v>
+        <v>0.004634872933099756</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,46 +31436,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05906297092889959</v>
+        <v>0.0590629709288996</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5251235051678531</v>
+        <v>0.5251235051678532</v>
       </c>
       <c r="I7" t="n">
-        <v>1.776184616661817</v>
+        <v>1.776184616661818</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1757520446732</v>
+        <v>4.175752044673201</v>
       </c>
       <c r="K7" t="n">
-        <v>6.862043349739423</v>
+        <v>6.862043349739425</v>
       </c>
       <c r="L7" t="n">
-        <v>8.781052968829309</v>
+        <v>8.781052968829311</v>
       </c>
       <c r="M7" t="n">
-        <v>9.258389161154685</v>
+        <v>9.258389161154687</v>
       </c>
       <c r="N7" t="n">
-        <v>9.038245360419705</v>
+        <v>9.038245360419706</v>
       </c>
       <c r="O7" t="n">
-        <v>8.348282472750283</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P7" t="n">
         <v>7.143397865800726</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.94571841114631</v>
+        <v>4.945718411146311</v>
       </c>
       <c r="R7" t="n">
-        <v>2.655685947403066</v>
+        <v>2.655685947403067</v>
       </c>
       <c r="S7" t="n">
-        <v>1.029306502460913</v>
+        <v>1.029306502460914</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2523599666962072</v>
+        <v>0.2523599666962073</v>
       </c>
       <c r="U7" t="n">
         <v>0.0032216165961218</v>
@@ -31521,7 +31521,7 @@
         <v>1.348473191870668</v>
       </c>
       <c r="I8" t="n">
-        <v>5.076237054030901</v>
+        <v>5.076237054030902</v>
       </c>
       <c r="J8" t="n">
         <v>11.17539134075754</v>
@@ -31533,28 +31533,28 @@
         <v>20.77863378260765</v>
       </c>
       <c r="M8" t="n">
-        <v>23.12023369725966</v>
+        <v>23.12023369725967</v>
       </c>
       <c r="N8" t="n">
-        <v>23.49434324994147</v>
+        <v>23.49434324994148</v>
       </c>
       <c r="O8" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978144</v>
       </c>
       <c r="P8" t="n">
         <v>18.93442017160913</v>
       </c>
       <c r="Q8" t="n">
-        <v>14.21896100560221</v>
+        <v>14.21896100560222</v>
       </c>
       <c r="R8" t="n">
-        <v>8.27106350678344</v>
+        <v>8.271063506783442</v>
       </c>
       <c r="S8" t="n">
         <v>3.000447490272464</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5763887608850337</v>
+        <v>0.5763887608850338</v>
       </c>
       <c r="U8" t="n">
         <v>0.01053366096420392</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07045006858311625</v>
+        <v>0.07045006858311627</v>
       </c>
       <c r="H9" t="n">
-        <v>0.680399346579044</v>
+        <v>0.6803993465790441</v>
       </c>
       <c r="I9" t="n">
         <v>2.425583501655538</v>
       </c>
       <c r="J9" t="n">
-        <v>6.655986523460121</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
@@ -31621,22 +31621,22 @@
         <v>16.76186346679082</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408647</v>
+        <v>13.45287318408648</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.992889456329017</v>
+        <v>8.992889456329019</v>
       </c>
       <c r="R9" t="n">
-        <v>4.374084082730676</v>
+        <v>4.374084082730677</v>
       </c>
       <c r="S9" t="n">
-        <v>1.308579124778496</v>
+        <v>1.308579124778497</v>
       </c>
       <c r="T9" t="n">
         <v>0.2839632150345782</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004634872933099755</v>
+        <v>0.004634872933099756</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,46 +31673,46 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05906297092889959</v>
+        <v>0.0590629709288996</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5251235051678531</v>
+        <v>0.5251235051678532</v>
       </c>
       <c r="I10" t="n">
-        <v>1.776184616661817</v>
+        <v>1.776184616661818</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1757520446732</v>
+        <v>4.175752044673201</v>
       </c>
       <c r="K10" t="n">
-        <v>6.862043349739423</v>
+        <v>6.862043349739425</v>
       </c>
       <c r="L10" t="n">
-        <v>8.781052968829309</v>
+        <v>8.781052968829311</v>
       </c>
       <c r="M10" t="n">
-        <v>9.258389161154685</v>
+        <v>9.258389161154687</v>
       </c>
       <c r="N10" t="n">
-        <v>9.038245360419705</v>
+        <v>9.038245360419706</v>
       </c>
       <c r="O10" t="n">
-        <v>8.348282472750283</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P10" t="n">
         <v>7.143397865800726</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.94571841114631</v>
+        <v>4.945718411146311</v>
       </c>
       <c r="R10" t="n">
-        <v>2.655685947403066</v>
+        <v>2.655685947403067</v>
       </c>
       <c r="S10" t="n">
-        <v>1.029306502460913</v>
+        <v>1.029306502460914</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2523599666962072</v>
+        <v>0.2523599666962073</v>
       </c>
       <c r="U10" t="n">
         <v>0.0032216165961218</v>
@@ -32229,13 +32229,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
@@ -32244,10 +32244,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I18" t="n">
         <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917227</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T18" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,19 +32414,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32569,7 +32569,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -32800,7 +32800,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
@@ -33259,7 +33259,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -33517,7 +33517,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
@@ -33754,13 +33754,13 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
@@ -33909,7 +33909,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548414</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184536</v>
@@ -33994,7 +33994,7 @@
         <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
         <v>62.32672164233624</v>
@@ -34149,7 +34149,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34231,7 +34231,7 @@
         <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
         <v>62.32672164233624</v>
@@ -34465,13 +34465,13 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
@@ -34695,34 +34695,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.459147934020301</v>
+        <v>2.45914793402028</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741896992</v>
+        <v>6.322231741896957</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511593157</v>
+        <v>9.475386511593094</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862101</v>
+        <v>11.75505483862092</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346455024</v>
+        <v>13.07976346455015</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187836</v>
+        <v>13.29140771187826</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237762</v>
+        <v>12.55069940237752</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923625</v>
+        <v>10.71173156923618</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489407</v>
+        <v>8.04406430748935</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169779</v>
+        <v>4.679172178169736</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.372220492257839</v>
+        <v>1.372220492257829</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850461</v>
+        <v>3.765477913850433</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268389</v>
+        <v>6.435801511268344</v>
       </c>
       <c r="L3" t="n">
-        <v>8.653729359136857</v>
+        <v>8.653729359136793</v>
       </c>
       <c r="M3" t="n">
-        <v>10.0984939920682</v>
+        <v>10.09849399206812</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903154</v>
+        <v>10.36577107903147</v>
       </c>
       <c r="O3" t="n">
-        <v>9.482655419555542</v>
+        <v>9.482655419555471</v>
       </c>
       <c r="P3" t="n">
-        <v>7.61066697986265</v>
+        <v>23.32779925082503</v>
       </c>
       <c r="Q3" t="n">
-        <v>11.25604366197644</v>
+        <v>5.087529325690682</v>
       </c>
       <c r="R3" t="n">
-        <v>23.32779925082521</v>
+        <v>13.77918131614827</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.3277992508252</v>
+        <v>2.362339833849115</v>
       </c>
       <c r="K4" t="n">
-        <v>5.340692953140923</v>
+        <v>3.882050029136128</v>
       </c>
       <c r="L4" t="n">
-        <v>4.96768749424826</v>
+        <v>8.105210739930239</v>
       </c>
       <c r="M4" t="n">
-        <v>5.237729941501939</v>
+        <v>5.2377299415019</v>
       </c>
       <c r="N4" t="n">
-        <v>23.3277992508252</v>
+        <v>23.32779925082503</v>
       </c>
       <c r="O4" t="n">
-        <v>23.32779925082519</v>
+        <v>23.32779925082503</v>
       </c>
       <c r="P4" t="n">
-        <v>4.041220155526418</v>
+        <v>23.32779925082502</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.797931362939991</v>
+        <v>2.797931362939977</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34932,25 +34932,25 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>4.663615574899503</v>
+        <v>4.663615574899505</v>
       </c>
       <c r="J5" t="n">
         <v>11.17539134075754</v>
       </c>
       <c r="K5" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L5" t="n">
-        <v>20.77863378260764</v>
+        <v>20.77863378260766</v>
       </c>
       <c r="M5" t="n">
         <v>23.12023369725966</v>
       </c>
       <c r="N5" t="n">
-        <v>23.49434324994147</v>
+        <v>23.49434324994148</v>
       </c>
       <c r="O5" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P5" t="n">
         <v>18.93442017160913</v>
@@ -35011,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.425583501655538</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J6" t="n">
-        <v>6.65598652346012</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K6" t="n">
-        <v>41.31500304752733</v>
+        <v>11.37614111852891</v>
       </c>
       <c r="L6" t="n">
-        <v>33.43910658143366</v>
+        <v>15.29662563687356</v>
       </c>
       <c r="M6" t="n">
-        <v>17.85044062301151</v>
+        <v>17.85044062301152</v>
       </c>
       <c r="N6" t="n">
-        <v>18.32288867065881</v>
+        <v>18.32288867065883</v>
       </c>
       <c r="O6" t="n">
         <v>16.76186346679083</v>
@@ -35038,7 +35038,7 @@
         <v>8.99288945632901</v>
       </c>
       <c r="R6" t="n">
-        <v>4.37408408273069</v>
+        <v>26.12848436996845</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>41.31500304752733</v>
+        <v>38.39134521367465</v>
       </c>
       <c r="K7" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752733</v>
+        <v>8.781052968829314</v>
       </c>
       <c r="M7" t="n">
-        <v>10.17006588498499</v>
+        <v>9.258389161154682</v>
       </c>
       <c r="N7" t="n">
-        <v>9.038245360419694</v>
+        <v>9.038245360419708</v>
       </c>
       <c r="O7" t="n">
-        <v>8.34828247275027</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P7" t="n">
         <v>7.143397865800722</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.945718411146316</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35169,16 +35169,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4.663615574899503</v>
+        <v>4.663615574899505</v>
       </c>
       <c r="J8" t="n">
-        <v>11.17539134075754</v>
+        <v>11.17539134075756</v>
       </c>
       <c r="K8" t="n">
-        <v>16.74901469844194</v>
+        <v>16.74901469844195</v>
       </c>
       <c r="L8" t="n">
-        <v>20.77863378260765</v>
+        <v>20.77863378260764</v>
       </c>
       <c r="M8" t="n">
         <v>23.12023369725966</v>
@@ -35187,7 +35187,7 @@
         <v>23.49434324994148</v>
       </c>
       <c r="O8" t="n">
-        <v>22.18504210978145</v>
+        <v>22.18504210978143</v>
       </c>
       <c r="P8" t="n">
         <v>18.93442017160913</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.425583501655538</v>
+        <v>2.425583501655539</v>
       </c>
       <c r="J9" t="n">
-        <v>17.79641043222203</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K9" t="n">
-        <v>11.37614111852891</v>
+        <v>22.51656502729077</v>
       </c>
       <c r="L9" t="n">
         <v>15.29662563687356</v>
@@ -35263,16 +35263,16 @@
         <v>17.85044062301152</v>
       </c>
       <c r="N9" t="n">
-        <v>18.32288867065881</v>
+        <v>18.32288867065883</v>
       </c>
       <c r="O9" t="n">
-        <v>16.76186346679081</v>
+        <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
         <v>13.45287318408647</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.99288945632901</v>
+        <v>8.992889456329024</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -35330,19 +35330,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5.857395134976596</v>
+        <v>40.56754722435491</v>
       </c>
       <c r="K10" t="n">
+        <v>6.862043349739423</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.781052968829307</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9.258389161154689</v>
+      </c>
+      <c r="N10" t="n">
         <v>41.31500304752733</v>
-      </c>
-      <c r="L10" t="n">
-        <v>41.31500304752733</v>
-      </c>
-      <c r="M10" t="n">
-        <v>9.258389161154682</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9.038245360419708</v>
       </c>
       <c r="O10" t="n">
         <v>8.348282472750284</v>
@@ -35409,10 +35409,10 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766674</v>
@@ -35424,7 +35424,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>281.8524450409517</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N13" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35652,7 +35652,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35664,7 +35664,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>167.0540751263764</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M16" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
         <v>101.7869254320035</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J17" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35962,25 +35962,25 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917227</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L19" t="n">
-        <v>281.8524450409517</v>
+        <v>547.5562458447063</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247774</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>81.10166275847587</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36281,25 +36281,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>216.0496516915127</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>547.5562458447062</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36360,28 +36360,28 @@
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994726</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36521,22 +36521,22 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366646</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M25" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320033</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>227.2024143463636</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36603,7 +36603,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36755,22 +36755,22 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247772</v>
+        <v>489.4663983449869</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O28" t="n">
-        <v>296.14752065127</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
         <v>240.36368292423</v>
@@ -36831,13 +36831,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -37068,7 +37068,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
@@ -37077,7 +37077,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37086,13 +37086,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>194.3982176018706</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>296.14752065127</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37308,10 +37308,10 @@
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062841</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37320,7 +37320,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
         <v>269.7982739184536</v>
@@ -37466,16 +37466,16 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263759</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>236.2244456364497</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
         <v>542.8637682561043</v>
@@ -37484,7 +37484,7 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37548,16 +37548,16 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548414</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184536</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37639,13 +37639,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>105.7776930081259</v>
       </c>
       <c r="L40" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O40" t="n">
-        <v>277.1599674523495</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37797,13 +37797,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37876,13 +37876,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,19 +37940,19 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>128.5954242524321</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38034,13 +38034,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>324.3780935581794</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
